--- a/testData_DDT/sheet1.xlsx
+++ b/testData_DDT/sheet1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\Workspace_CM\RestAssured_CM\testData_DDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\test data DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA14D86-439A-4136-B6F6-F6EFF6BA2215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F99014-361A-45F1-9E9A-105BC8BE23D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testData_DDT/sheet1.xlsx
+++ b/testData_DDT/sheet1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\test data DDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\Workspace_CM\RestAssured_CM\testData_DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F99014-361A-45F1-9E9A-105BC8BE23D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B2819B-2DD6-488E-B2A2-82875C37DBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>CompanyId</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>ABC01</t>
+  </si>
+  <si>
+    <t>Project added from excel 2</t>
+  </si>
+  <si>
+    <t>Project by SJ 2</t>
+  </si>
+  <si>
+    <t>2025-10-01T12:03:55.621Z</t>
+  </si>
+  <si>
+    <t>2025-01-08T12:03:55.621Z</t>
   </si>
 </sst>
 </file>
@@ -461,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D1C6A0-F575-409D-BD46-A410891B8D0B}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4">
         <v>222</v>
@@ -589,7 +601,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L3" s="4" t="b">
         <v>1</v>
@@ -598,6 +610,94 @@
         <v>0</v>
       </c>
       <c r="N3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4">
+        <v>333</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4">
+        <v>444</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4">
+        <v>44</v>
+      </c>
+      <c r="L5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/testData_DDT/sheet1.xlsx
+++ b/testData_DDT/sheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\Workspace_CM\RestAssured_CM\testData_DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B2819B-2DD6-488E-B2A2-82875C37DBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720BB6DF-BDA2-4480-92E8-46AF4261CE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>CompanyId</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>2025-01-08T12:03:55.621Z</t>
+  </si>
+  <si>
+    <t>Project by SJ 3</t>
   </si>
 </sst>
 </file>
@@ -473,13 +476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D1C6A0-F575-409D-BD46-A410891B8D0B}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -698,6 +705,50 @@
         <v>0</v>
       </c>
       <c r="N5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4">
+        <v>555</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4">
+        <v>55</v>
+      </c>
+      <c r="L6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/testData_DDT/sheet1.xlsx
+++ b/testData_DDT/sheet1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\Workspace_CM\RestAssured_CM\testData_DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720BB6DF-BDA2-4480-92E8-46AF4261CE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BACC1D9-092B-47B8-9166-59BA69D07EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>CompanyId</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Project by SJ 3</t>
+  </si>
+  <si>
+    <t>Project by Shubham Jagtap</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D1C6A0-F575-409D-BD46-A410891B8D0B}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,6 +755,94 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>666</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="4">
+        <v>66</v>
+      </c>
+      <c r="L7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>777</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="4">
+        <v>77</v>
+      </c>
+      <c r="L8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
